--- a/results/yq_test/Tetris_cz/Rb2Re4/Tetris_cz_total.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/Tetris_cz_total.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/Tetris_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="11_387904BCDDDA516DA983D0F0505ED87656CD16DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8B5D25F-D0B0-1849-9A79-BBA3B7FC7A5B}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_387904BCDDDA516DA983D0F0505ED87656CD16DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA37E626-947D-F740-A82C-4F77C69F5D86}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,7 +587,7 @@
   <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1064,6 +1064,9 @@
       <c r="N10" s="3">
         <v>147.37700000000001</v>
       </c>
+      <c r="O10">
+        <v>0.102432601221828</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">

--- a/results/yq_test/Tetris_cz/Rb2Re4/Tetris_cz_total.xlsx
+++ b/results/yq_test/Tetris_cz/Rb2Re4/Tetris_cz_total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studentutsedu-my.sharepoint.com/personal/yunqi_huang_student_uts_edu_au/Documents/Untitled Folder/NAQCT/results/yq_test/Tetris_cz/Rb2Re4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_387904BCDDDA516DA983D0F0505ED87656CD16DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA37E626-947D-F740-A82C-4F77C69F5D86}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_387904BCDDDA516DA983D0F0505ED87656CD16DB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06F01743-64CF-C046-A067-A0A4CF294404}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>file name</t>
   </si>
@@ -584,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -600,7 +600,7 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,8 +646,11 @@
       <c r="O1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -693,8 +696,11 @@
       <c r="O2">
         <v>0.82362016664764304</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>1857.5311360359101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -740,8 +746,11 @@
       <c r="O3">
         <v>0.931252556026401</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>393.31079387664698</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -787,8 +796,11 @@
       <c r="O4">
         <v>0.901216476941745</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>1002.84794068336</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -834,8 +846,11 @@
       <c r="O5">
         <v>0.89703750771695101</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>616.42341589927605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -881,8 +896,11 @@
       <c r="O6">
         <v>0.40786940292444002</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>1616.9264588356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -928,8 +946,11 @@
       <c r="O7">
         <v>0.52761167816549304</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>1621.23665571212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" t="s">
         <v>24</v>
       </c>
@@ -975,8 +996,11 @@
       <c r="O8">
         <v>0.104397646240091</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>208708.07456517199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1020,8 +1044,11 @@
       <c r="O9">
         <v>0.86024582977154496</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>924.22759389877297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1067,8 +1094,11 @@
       <c r="O10">
         <v>0.102432601221828</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>247528.04811215401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1114,8 +1144,11 @@
       <c r="O11">
         <v>0.29082981290799098</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>1749.4894940853101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1161,8 +1194,11 @@
       <c r="O12">
         <v>0.87225900101895204</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>1110.0513420104901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1206,7 +1242,7 @@
         <v>295.81400000000002</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1250,7 +1286,7 @@
         <v>251.58500000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1294,7 +1330,7 @@
         <v>206.77699999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:16">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1338,7 +1374,7 @@
         <v>337.17</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1418,7 @@
         <v>275.154</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1428,8 +1464,11 @@
       <c r="O18">
         <v>0.24732512966026099</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>9828.1096436977296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1473,7 +1512,7 @@
         <v>147.60900000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -1517,7 +1556,7 @@
         <v>163.94399999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1561,8 +1600,11 @@
       <c r="O21">
         <v>0.37200091758354198</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>1129.0476448535901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -1606,8 +1648,11 @@
       <c r="O22">
         <v>0.25791807218059098</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>3728.5078887939399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1651,7 +1696,7 @@
         <v>385.13600000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1693,7 +1738,7 @@
       </c>
       <c r="N24" s="3"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -1737,7 +1782,7 @@
         <v>380.61200000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1783,8 +1828,11 @@
       <c r="O26">
         <v>0.118475094578676</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>29249.470268249501</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -1828,7 +1876,7 @@
         <v>947.52</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1872,7 +1920,7 @@
         <v>409.89800000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1916,7 +1964,7 @@
         <v>687.21199999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1960,7 +2008,7 @@
         <v>1016.51</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -2004,7 +2052,7 @@
         <v>700.59</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
         <v>31</v>
       </c>
